--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agusetoiu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitzy\TehniciWeb\Proiect1\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Despre animale pe cale de disparitie din Romania</t>
   </si>
   <si>
-    <t>Site de divertisment gen filmulete, imagini si articole amuzante</t>
-  </si>
-  <si>
     <t>Un site despre gatit</t>
   </si>
   <si>
@@ -192,12 +189,15 @@
   </si>
   <si>
     <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Site de divertisment (filmulete, imagini si articole amuzante)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,6 +346,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -381,6 +398,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,27 +594,27 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -591,7 +625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -599,10 +633,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -610,22 +644,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -636,7 +670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -644,10 +678,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -655,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -666,10 +700,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -680,7 +714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -688,10 +722,10 @@
         <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -699,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -711,7 +745,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -720,7 +754,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -728,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -739,10 +773,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -750,10 +784,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -761,10 +795,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -772,10 +806,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -783,10 +817,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -794,10 +828,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -805,10 +839,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -819,15 +853,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -838,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -849,7 +883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -857,32 +891,32 @@
         <v>18</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -890,7 +924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -898,13 +932,13 @@
         <v>20</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
   </sheetData>
@@ -919,7 +953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -931,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitzy\TehniciWeb\Proiect1\labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agusetoiu\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Nume si Prenume</t>
   </si>
@@ -192,12 +192,15 @@
   </si>
   <si>
     <t>Site de divertisment (filmulete, imagini si articole amuzante)</t>
+  </si>
+  <si>
+    <t>Nota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,23 +349,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -398,23 +384,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,28 +562,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -624,8 +593,11 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -636,7 +608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -648,7 +620,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -659,7 +631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -669,8 +641,11 @@
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -680,8 +655,11 @@
       <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -692,7 +670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -703,7 +681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -714,7 +692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -725,7 +703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -736,7 +714,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -745,7 +723,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -754,7 +732,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -765,7 +743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -775,8 +753,11 @@
       <c r="C17" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -787,7 +768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -797,8 +778,11 @@
       <c r="C19" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -809,7 +793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -820,7 +804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -831,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -842,7 +826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -853,7 +837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -861,7 +845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -872,7 +856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -883,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -894,7 +878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -905,7 +889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -916,7 +900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -924,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -935,10 +919,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
     </row>
   </sheetData>
@@ -953,7 +937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -965,7 +949,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,6 +767,9 @@
       <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -877,6 +880,9 @@
       <c r="C28" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -887,6 +893,9 @@
       </c>
       <c r="C29" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Nume si Prenume</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Nota</t>
+  </si>
+  <si>
+    <t>probleme encoding</t>
+  </si>
+  <si>
+    <t>structura proiectului</t>
+  </si>
+  <si>
+    <t>css3</t>
   </si>
 </sst>
 </file>
@@ -562,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,6 +616,9 @@
       <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -618,6 +630,9 @@
       <c r="C5" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -669,6 +684,12 @@
       <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -680,6 +701,9 @@
       <c r="C10" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -691,6 +715,9 @@
       <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -702,6 +729,9 @@
       <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -712,6 +742,9 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -722,6 +755,9 @@
         <v>8</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="D14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -731,6 +767,9 @@
         <v>25</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -742,8 +781,11 @@
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -757,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -771,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -785,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -795,8 +837,14 @@
       <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -806,8 +854,11 @@
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -817,8 +868,11 @@
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -828,8 +882,11 @@
       <c r="C23" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -839,16 +896,22 @@
       <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -858,8 +921,14 @@
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -869,8 +938,11 @@
       <c r="C27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -884,7 +956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -898,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -908,16 +980,22 @@
       <c r="C30" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -926,6 +1004,12 @@
       </c>
       <c r="C32" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Nume si Prenume</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Site de divertisment (filmulete, imagini si articole amuzante)</t>
   </si>
   <si>
-    <t>Nota</t>
-  </si>
-  <si>
     <t>probleme encoding</t>
   </si>
   <si>
@@ -204,6 +201,15 @@
   </si>
   <si>
     <t>css3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 1 </t>
+  </si>
+  <si>
+    <t>Nota 2</t>
+  </si>
+  <si>
+    <t>Lucrare</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,17 +588,17 @@
     <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -603,10 +609,16 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -620,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -635,7 +647,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -646,7 +658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -660,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -674,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -688,10 +700,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -705,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -719,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -733,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -747,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -759,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -771,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -785,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -799,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -813,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -826,8 +838,11 @@
       <c r="D19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -841,10 +856,10 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -858,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -871,8 +886,11 @@
       <c r="D22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -885,8 +903,11 @@
       <c r="D23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -900,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -911,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -925,10 +946,10 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -942,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -956,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -970,7 +991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -995,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -1009,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Nume si Prenume</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Lucrare</t>
+  </si>
+  <si>
+    <t>de implementat Undo</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,6 +634,12 @@
       <c r="D4">
         <v>9</v>
       </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -797,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -810,8 +819,14 @@
       <c r="D17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -825,7 +840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -842,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -859,7 +874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -873,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -890,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -907,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -921,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -932,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -949,7 +964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -963,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -977,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1005,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -1016,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,6 +680,9 @@
       <c r="D7">
         <v>10</v>
       </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -694,6 +697,9 @@
       <c r="D8">
         <v>10</v>
       </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -854,6 +860,9 @@
         <v>10</v>
       </c>
       <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="I19">
         <v>10</v>
       </c>
     </row>

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Nume si Prenume</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>de implementat Undo</t>
+  </si>
+  <si>
+    <t>Nota finala</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,17 +594,17 @@
     <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -620,8 +623,11 @@
       <c r="I3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -640,8 +646,12 @@
       <c r="H4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f xml:space="preserve"> (D4+G4+I4)/3</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -655,8 +665,12 @@
         <v>9</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f xml:space="preserve"> (D5+G5+I5)/3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -666,8 +680,12 @@
       <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f xml:space="preserve"> (D6+G6+I6)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -683,8 +701,12 @@
       <c r="I7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f xml:space="preserve"> (D5+G5+I5)/3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -701,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -718,7 +740,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -732,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -746,7 +768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -760,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -773,8 +795,14 @@
       <c r="D13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -785,8 +813,11 @@
       <c r="D14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -798,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -986,6 +1017,9 @@
       <c r="D27">
         <v>10</v>
       </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1013,6 +1047,9 @@
       </c>
       <c r="D29">
         <v>7</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,14 +641,17 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>63</v>
       </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
       <c r="K4">
         <f xml:space="preserve"> (D4+G4+I4)/3</f>
-        <v>5.666666666666667</v>
+        <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -665,9 +668,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="2"/>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
       <c r="K5">
         <f xml:space="preserve"> (D5+G5+I5)/3</f>
-        <v>3</v>
+        <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -703,7 +712,7 @@
       </c>
       <c r="K7">
         <f xml:space="preserve"> (D5+G5+I5)/3</f>
-        <v>3</v>
+        <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -739,6 +748,12 @@
       <c r="E9" t="s">
         <v>57</v>
       </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -753,6 +768,9 @@
       <c r="D10">
         <v>10</v>
       </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -767,6 +785,9 @@
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -876,6 +897,9 @@
       <c r="D18">
         <v>10</v>
       </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -974,6 +998,9 @@
       </c>
       <c r="D24">
         <v>10</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Nume si Prenume</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>Nota finala</t>
+  </si>
+  <si>
+    <t>Punctaj final</t>
+  </si>
+  <si>
+    <t>va urma …</t>
+  </si>
+  <si>
+    <t>George bunea</t>
   </si>
 </sst>
 </file>
@@ -581,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,17 +603,17 @@
     <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -626,8 +635,11 @@
       <c r="K3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -653,8 +665,12 @@
         <f xml:space="preserve"> (D4+G4+I4)/3</f>
         <v>9.3333333333333339</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <f xml:space="preserve"> K4 * 3 / 10</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -679,7 +695,7 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -694,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -715,7 +731,7 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -732,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -755,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -772,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -789,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -802,8 +818,11 @@
       <c r="D12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -823,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -838,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -849,8 +868,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -951,6 +973,9 @@
       <c r="D21">
         <v>10</v>
       </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -968,6 +993,9 @@
       <c r="G22">
         <v>10</v>
       </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -985,6 +1013,9 @@
       <c r="G23">
         <v>10</v>
       </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -1011,7 +1042,10 @@
         <v>42</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1030,6 +1064,9 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1061,6 +1098,9 @@
       <c r="D28">
         <v>10</v>
       </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -1092,6 +1132,9 @@
       <c r="D30">
         <v>8</v>
       </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1115,16 +1158,25 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
     </row>
   </sheetData>

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,8 +727,8 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <f xml:space="preserve"> (D5+G5+I5)/3</f>
-        <v>9.3333333333333339</v>
+        <f xml:space="preserve"> (D7+G7+I7)/3</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -747,6 +747,10 @@
       <c r="I8">
         <v>7</v>
       </c>
+      <c r="K8">
+        <f xml:space="preserve"> (D8+G8+I8)/3</f>
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -770,6 +774,10 @@
       <c r="I9">
         <v>8</v>
       </c>
+      <c r="K9">
+        <f xml:space="preserve"> (D9+G9+I9)/3</f>
+        <v>8.6666666666666661</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -782,6 +790,9 @@
         <v>49</v>
       </c>
       <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
       <c r="I10">

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -593,7 +593,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="B12:J12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <f xml:space="preserve"> (D4+G4+I4)/3</f>
+        <f t="shared" ref="K4:K9" si="0" xml:space="preserve"> (D4+G4+I4)/3</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="M4">
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="K5">
-        <f xml:space="preserve"> (D5+G5+I5)/3</f>
+        <f t="shared" si="0"/>
         <v>9.3333333333333339</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
         <v>53</v>
       </c>
       <c r="K6">
-        <f xml:space="preserve"> (D6+G6+I6)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -727,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <f xml:space="preserve"> (D7+G7+I7)/3</f>
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <f xml:space="preserve"> (D8+G8+I8)/3</f>
+        <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="K9">
-        <f xml:space="preserve"> (D9+G9+I9)/3</f>
+        <f t="shared" si="0"/>
         <v>8.6666666666666661</v>
       </c>
     </row>
@@ -812,6 +812,9 @@
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
       <c r="I11">
         <v>9</v>
       </c>
@@ -829,6 +832,9 @@
       <c r="D12">
         <v>10</v>
       </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
       <c r="I12">
         <v>5</v>
       </c>
@@ -864,6 +870,9 @@
       <c r="D14">
         <v>10</v>
       </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
       <c r="I14">
         <v>10</v>
       </c>
@@ -879,8 +888,11 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="I15">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -894,6 +906,12 @@
         <v>52</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
     </row>

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Nume si Prenume</t>
   </si>
@@ -197,12 +197,6 @@
     <t>probleme encoding</t>
   </si>
   <si>
-    <t>structura proiectului</t>
-  </si>
-  <si>
-    <t>css3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nota 1 </t>
   </si>
   <si>
@@ -219,9 +213,6 @@
   </si>
   <si>
     <t>Punctaj final</t>
-  </si>
-  <si>
-    <t>va urma …</t>
   </si>
   <si>
     <t>George bunea</t>
@@ -592,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,19 +615,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -656,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -694,6 +685,10 @@
         <f t="shared" si="0"/>
         <v>9.3333333333333339</v>
       </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M33" si="1" xml:space="preserve"> K5 * 3 / 10</f>
+        <v>2.8</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -709,6 +704,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -730,6 +729,10 @@
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -744,12 +747,19 @@
       <c r="D8">
         <v>10</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>5.666666666666667</v>
+        <f xml:space="preserve"> (D8+G8+I8)/3</f>
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -775,8 +785,12 @@
         <v>8</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (D9+G9+I9)/3</f>
         <v>8.6666666666666661</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -798,6 +812,14 @@
       <c r="I10">
         <v>9</v>
       </c>
+      <c r="K10">
+        <f t="shared" ref="K9:K33" si="2" xml:space="preserve"> (D10+G10+I10)/3</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -818,6 +840,14 @@
       <c r="I11">
         <v>9</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -838,6 +868,14 @@
       <c r="I12">
         <v>5</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -857,6 +895,14 @@
       </c>
       <c r="I13">
         <v>10</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -876,6 +922,14 @@
       <c r="I14">
         <v>10</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -894,6 +948,14 @@
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -914,8 +976,16 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -934,8 +1004,16 @@
       <c r="I17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -948,11 +1026,22 @@
       <c r="D18">
         <v>10</v>
       </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
       <c r="I18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -971,8 +1060,16 @@
       <c r="I19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -985,11 +1082,22 @@
       <c r="D20">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1002,11 +1110,22 @@
       <c r="D21">
         <v>10</v>
       </c>
-      <c r="I21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1025,8 +1144,16 @@
       <c r="I22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1045,8 +1172,16 @@
       <c r="I23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1059,11 +1194,22 @@
       <c r="D24">
         <v>10</v>
       </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
       <c r="I24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -1073,11 +1219,22 @@
       <c r="D25">
         <v>10</v>
       </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
       <c r="I25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -1090,14 +1247,22 @@
       <c r="D26">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
-        <v>58</v>
+      <c r="G26">
+        <v>10</v>
       </c>
       <c r="I26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -1110,11 +1275,22 @@
       <c r="D27">
         <v>10</v>
       </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
       <c r="I27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1127,11 +1303,22 @@
       <c r="D28">
         <v>10</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
       <c r="I28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -1144,11 +1331,22 @@
       <c r="D29">
         <v>7</v>
       </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
       <c r="I29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1159,24 +1357,40 @@
         <v>55</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -1189,23 +1403,45 @@
       <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32" t="s">
-        <v>59</v>
+      <c r="G32">
+        <v>10</v>
       </c>
       <c r="I32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
       </c>
       <c r="I33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
     </row>
   </sheetData>

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,16 +722,19 @@
       <c r="D7">
         <v>10</v>
       </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">

--- a/Proiecte TW 234.xlsx
+++ b/Proiecte TW 234.xlsx
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +235,22 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -258,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,6 +293,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,17 +624,17 @@
     <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -630,7 +660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -661,7 +691,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -690,26 +720,35 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K6">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -737,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -765,7 +804,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -796,7 +835,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -824,7 +863,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -852,7 +891,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -880,7 +919,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -908,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -934,61 +973,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="C15" s="11"/>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1016,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1044,7 +1095,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1072,35 +1123,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>8</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8">
         <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="M20">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1128,7 +1185,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1156,7 +1213,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1184,7 +1241,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1212,7 +1269,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -1237,7 +1294,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -1265,7 +1322,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -1293,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1321,7 +1378,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -1349,7 +1406,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1377,23 +1434,35 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
